--- a/code/data_process/2.Calculation_indicator_code/人工标注与API接口跑出来的课堂场景类别评估/已评估数据/qwen_726_evaluated.xlsx
+++ b/code/data_process/2.Calculation_indicator_code/人工标注与API接口跑出来的课堂场景类别评估/已评估数据/qwen_726_evaluated.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,7 +481,11 @@
           <t>同学们，请抓紧时间进入教室，</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“同学们，请抓紧时间进入教室”体现出老师在提醒学生尽快回到座位，准备上课，但这并不是一个具体的课堂活动，而是上课前的常规准备行为，不涉及诸如发言、展示、练习等预设的课堂活动类别。
@@ -508,7 +512,11 @@
           <t>声音要小亮啊，同学们好，请坐真棒。</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“声音要小亮啊”是老师对课堂声音大小的要求，没有直接指示学生开展某种特定的课堂活动。而“同学们好，请坐真棒”是对学生的赞扬和课堂秩序的维持，也没有明确的课堂活动指令。因此，这段话语中没有明显的预设课堂活动类别。
@@ -535,7 +543,11 @@
           <t>今天小猴子呀要到我们搬来做客了，我来跟他打打招呼猴子，猴子猴子昨天在写作业的时候呀，</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“我来跟他打打招呼猴子，猴子猴子”这部分虽然提到了“打招呼”，但这是老师在模拟情景，而非实际让学生们开展课堂活动。接着的“昨天在写作业的时候呀”是在描述情景，也没有明确的课堂活动指示。因此，这段话中没有提到任何预设的课堂活动，学生不会立即开展任何特定的课堂活动。
@@ -562,7 +574,11 @@
           <t>背的错别字了，读明白了吗？好，现在用眼睛看，用心记住这个字，猴猴猴子猴子猴子猴子。哎，</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，”背的错别字了，读明白了吗？“这部分是老师对学生学习成果的检查，而”好，现在用眼睛看，用心记住这个字“这部分则是老师对学生的新指示，要求学生观察并记忆特定的字。由于“猴猴猴子猴子猴子猴子”是重复的词语，可能是老师在强调或让学生加深印象。综合分析，老师让学生看字并用心记忆，这是一种个人的学习活动，符合“独立练习”的特征。而“哎”可能是在等待学生回应或者准备进一步的指导。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -574,7 +590,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -593,7 +609,11 @@
           <t>它分别种了什么树呢？谁来说说，于凯，你来说说看，你慢讲啊。嗯，然后呢，愿你送我幸福啊，杏树，</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“谁来说说”体现出老师发起了一个开展课堂活动的指令，邀请学生用话语来回答问题。“于凯，你来说说看”进一步具体指定了回答问题的学生，即于凯。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -601,7 +621,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -620,7 +640,11 @@
           <t>什么什么也不什么，</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>分析过程：这句话是一个不完整的句子，老师可能是在引导学生补全句子，或者让学生思考如何用这样的句式表达想法。然而，这句话本身并不提供足够的信息来明确判断接下来的课堂活动类型。因此，无法识别出任何预设的课堂活动类别。
@@ -647,7 +671,11 @@
           <t>你能不能连起来把这句话来说一说，投资中了，</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你能不能连起来把这句话来说一说”体现出老师发起了一个开展课堂活动的指令，其中，“你能不能”中的“你”指向一个学生，而“连起来把这句话来说一说”则要求该学生用话语完整地表述某个观点或信息。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -655,7 +683,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -674,7 +702,11 @@
           <t>用一句话把这个故事哎就讲讲出来了，来，我们一起来试不看猴子，种了梨树杏树桃树桃树。</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“用一句话把这个故事哎就讲讲出来了”体现出老师发起了一个开展课堂活动的指令。首先，“我们一起来试”中的”我们“体现出这个课堂活动是老师邀请全体学生共同参与的。进一步地，“用一句话把这个故事哎就讲讲出来了”体现出该活动是概括、总结活动，要求学生用一句话来概述故事内容，总结活动是个体经过大脑思考后才能得出结论的活动，这种思考活动无法集体整齐划一地开展，只能由每一个学生独自完成。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -682,7 +714,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -701,7 +733,11 @@
           <t>小朋友们真能干好。那我们来看看哦，他为什么什么时候都没种成呢，</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“小朋友们真能干好”是对学生的赞扬，而“那我们来看看哦，他为什么什么时候都没种成呢”是老师引导学生关注和思考某个问题，但没有明确指出具体的课堂活动形式，比如是否是全体学生一起讨论，还是某个学生发言，或者是其他形式的活动。综合上述整段话的分析过程，这段话语中没有提供足够的信息来确定一个特定的课堂活动类别。
@@ -728,7 +764,11 @@
           <t>张老师困了。好，你来读猴子，种了一棵梨树苗，</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“好，你来读猴子，种了一棵梨树苗”体现出老师发起了一个开展课堂活动的指令，其中，“你来读”体现出老师邀请一个学生来朗读，这个活动是针对单个学生的，而且是朗读行为，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -740,7 +780,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -759,7 +799,11 @@
           <t>天天都去浇水施肥，说明他怎么样，晴朗。对，非常晴朗，猴子是不是很好？你们看这个猴子种树啊，它有一个动作的过程，你找到了动作了吗？还有哪些动作？好，那就好了，</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师的话语涉及到对猴子种树行为的讨论，并询问学生是否找到了猴子的动作以及还有哪些动作，这表明老师可能要求学生对猴子的动作进行观察和描述。这个过程可以理解为老师邀请学生分享他们的观察结果，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -790,7 +834,11 @@
           <t>重，所以先说重好的，然后呢水嗯交，</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，没有明显的特征短语或特征句子体现出老师发起了一个具体的课堂活动。老师的话语可能是在引导学生注意某些概念或进行课堂讲解，但没有直接的指令或活动指示，如“讨论”、“展示”、“写下来”、“听写”等。因此，无法确定学生要开展的课堂活动类别。
@@ -817,7 +865,11 @@
           <t>然后等着将来可以吃梨子了。好，我们按照这个顺序啊，把故事的开头自己在下面讲一讲，好不好？开，</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“把故事的开头自己在下面讲一讲”体现出老师发起了一个开展课堂活动的指令，其中，“自己在下面讲一讲”体现出老师要求学生独自在座位上复述故事的开头，这种活动是个体的口述练习，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -848,7 +900,11 @@
           <t>刘若涵猴子中了一个树苗，</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“刘若涵猴子中了一个树苗”这句话似乎是在描述一个场景或者事件，但是没有明确的课堂活动指示。没有明显的特征短语或特征短句来表明老师发起了一个课堂活动，例如邀请学生发言、展示、练习或书写等。因此，从这段话中无法识别出预设的课堂活动类别。
@@ -875,7 +931,11 @@
           <t>是不是好非常好。那接下来我要加大难度了，唉，没有提示你还能不能把刚刚的故事开头讲给我们听，赶紧猴子种了一棵梨树苗，天天浇水施肥，</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“没有提示你还能不能把刚刚的故事开头讲给我们听”体现出老师发起了一个开展课堂活动的指令，其中的“你”可能是指定的一个学生，而“讲给我们听”则表明该学生被要求用话语来复述故事的开头。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -883,7 +943,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -902,7 +962,11 @@
           <t>故事的开头好讲给我们听啊，非常好。这时候谁朗诵，</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“故事的开头好讲给我们听啊，非常好”这部分话是对之前学生表现的肯定，但没有直接发起新的课堂活动。而“这时候谁朗诵”这句话中，“谁”表明老师正在邀请一个学生，而“朗诵”则表明了这个活动是朗读。综合来看，老师可能是在邀请一个学生来朗读故事的开头，这符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -910,7 +974,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -929,7 +993,11 @@
           <t>你说当谁告诉我是谁来了？这时候一只乌鸦哦，</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你说当谁告诉我是谁来了？”这句话中，“你说”体现了老师邀请一个学生来回答问题，而“当谁告诉我是谁来了？”是一个问题，要求学生用话语来表达答案。综合分析，这个课堂活动是由一个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -956,7 +1024,11 @@
           <t>谁来坐一下乌鸦董，</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>个体展示</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“谁来坐一下乌鸦董”体现出老师发起了一个开展课堂活动的指令，其中，“谁来”体现出老师邀请一个学生来扮演“乌鸦董”这个角色，可能是戏剧或角色扮演活动的一部分。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种表演活动，符合“个体展示”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体展示”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -964,7 +1036,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -983,7 +1055,11 @@
           <t>好，你来小乌鸦，猴哥猴哥，哎，小乌鸦你等等啊，你为什么要连喊两声？还连喊不呀？我觉得呃我如果我喊，</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>个体展示</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你来小乌鸦，猴哥猴哥，哎，小乌鸦你等等啊，你为什么要连喊两声？还连喊不呀？”体现出老师发起了一个开展课堂活动的指令，邀请一个学生来回答问题。老师连续的称呼和提问，表明老师在引导一个学生解释或讨论某些内容，这符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1010,7 +1086,11 @@
           <t>猴哥给我听听猴哥猴哥，哎，猴哥听见了来，我们学着他的样子，小乌鸦们叫两声猴哥哦，猴哥听见了。好，</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>学生齐读</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“猴哥给我听听猴哥猴哥”和“哎，猴哥听见了来”是老师在模仿某种情景，可能是教学中的角色扮演。接着，“我们学着他的样子，小乌鸦们叫两声猴哥哦，猴哥听见了”这部分，老师要求学生模仿叫声并参与到模拟的情境中，这可能是一个课堂活动的指令，要求学生进行集体的模仿练习。最后，“好”这个词表明老师可能在确认学生准备好了，即将开始这个活动。综合上述整段话的分析过程，这个课堂活动是全体学生参与、且整齐划一地进行的模仿练习，符合“学生齐读”的特征，因为学生会集体模仿叫声。
@@ -1018,7 +1098,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1037,7 +1117,11 @@
           <t>你说就是用于那些种田的谚谚语啊，他们不是长期的在农田里劳动吗？他们把长期劳动的经验浓缩成简单一幅画。这里的农业是什么，武姓思？对礼武姓思是什么意思啊？</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你说就是用于那些种田的谚谚语啊，他们不是长期的在农田里劳动吗？”体现出老师在引导学生思考与农业谚语相关的内容，但没有明确的课堂活动指令。接着，“他们把长期劳动的经验浓缩成简单一幅画。这里的农业是什么，武姓思？”是在询问学生对农业的理解，这可能引导学生进行口头回答，符合“个体发言”的特征。然而，话语中没有明确的“开始”指令，也没有提及具体的学生名字，所以这更像是在课堂上的提问，而未正式发起一个课堂活动。最后，“对礼武姓思是什么意思啊？”这部分没有明显的特征指向某一种具体的课堂活动。综合分析，这段话虽然包含了一个潜在的“个体发言”活动，但由于没有明确的指令，且没有表明活动开始，因此无法确定课堂活动的类别和状态。
@@ -1045,7 +1129,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1064,7 +1148,11 @@
           <t>农小乌鸦啊。对的，猴哥说了一句，农好，接着说下去，梨树要等五年才能，结果你有这个耐心吗？</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“农小乌鸦啊。对的，猴哥说了一句，农好，接着说下去，梨树要等五年才能，结果你有这个耐心吗？”体现出老师在引导学生继续之前的角色扮演或者故事讲述。老师提到“接着说下去”，意味着老师在邀请一个学生或者特定的角色（如“农小乌鸦”）继续完成故事的叙述。综合这段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1091,7 +1179,11 @@
           <t>说明你怎么样啊？就是问猴哥，你你能种梨树吗？</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“说明你怎么样啊？”和“就是问猴哥，你你能种梨树吗？”是老师在提问，询问学生对于某个话题的理解或者询问学生是否具备某种知识或技能，例如种植梨树。这些提问并没有明确指出学生要执行的具体课堂活动，如发言、展示或练习等。因此，从这段话中无法识别出预设的课堂活动类别。
@@ -1118,7 +1210,11 @@
           <t>是不是啊？你看这里又来一问，语气就更强烈真棒。那这小朋标再来说说全圈圈后跟啊，你来欢迎陈一坤猴哥猴哥，你怎么种梨树呢？</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你来欢迎陈一坤猴哥猴哥，你怎么种梨树呢？”体现出老师发起了一个开展课堂活动的指令，其中，“你来”体现出老师邀请一个学生开展活动，而“陈一坤”可能是被邀请学生的名字。进一步地，“你怎么种梨树呢？”体现出该学生被要求用话语来解释种梨树的过程或方法。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1130,7 +1226,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1149,7 +1245,11 @@
           <t>真好好来加上前面这一段，</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“真好好来加上前面这一段”中，没有明显的特征短语或特征短句体现出老师在发起一个具体的课堂活动，例如邀请学生发言、小组讨论、独立练习等。这段话更像是老师在评价或者指导学生如何处理某个文本内容，而没有明确指出接下来的课堂活动是什么。因此，在老师说完这段话后，无法识别出任何预设的课堂活动类别。
@@ -1176,7 +1276,11 @@
           <t>好，梁振轩正，当你出现错的时候，出弯弯对，</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师提到“梁振轩”，可能是对学生的名字进行点名，然后说“当你出现错的时候，出弯弯对”，这句话可能是对某个具体情境的描述或对错误的纠正，但并没有明确指出学生要进行某种课堂活动，比如发言、展示或者练习。因此，从这段话中无法识别出预设的课堂活动类别。
@@ -1203,7 +1307,11 @@
           <t>啊啊，肯定有想法了，是不是呀？哎好，那一下再来试试。这只香味真不错，真是一只热情的小乌好，你来，正当梨树成果的时候，一只乌鸦哇哇，</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>个体展示</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，”哎好，那一下再来试试“体现出老师发起了一个开展课堂活动的指令，邀请学生尝试某项任务。而“正当梨树成果的时候，一只乌鸦哇哇”这部分可能是在描述一个情境或者故事片段，可能用于角色扮演或朗读练习。由于没有明确指出是哪一个学生来执行，也没有明确指出是独立练习还是集体活动，同时考虑到“再来试试”的指令，可能是指之前有类似的活动，现在要继续或者重复，因此推测可能是一个学生或几个学生进行的展示或发言活动。综合分析，这个课堂活动可能是“个体发言”或“多人展示”，但无法确定具体是哪一种，也没有提及课堂活动的进行状态。
@@ -1230,7 +1338,11 @@
           <t>嗯，还有本书我查出来好不好？把书翻到，四十七页，找到之后，把那个自己读一读，</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“把书翻到四十七页，找到之后，把那个自己读一读”体现出老师发起了一个开展课堂活动的指令。首先，“把书翻到四十七页”表明老师要求学生找到书的特定页面。接着，“找到之后，把那个自己读一读”体现出老师让学生在找到页面后，独立阅读相关内容。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1238,7 +1350,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1257,7 +1369,11 @@
           <t>来你来说还有喜鹊和杜鹃。嗯，喜鹊和杜鹃。好，你来读读喜鹊是怎么对猴子说的，正当技术存活的时候，</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>个体展示</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你来读读喜鹊是怎么对猴子说的”体现出老师发起了一个开展课堂活动的指令，其中的“你”指向一个特定的学生，要求他朗读喜鹊对猴子说的话。这表明这个课堂活动是由一个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1284,7 +1400,11 @@
           <t>好，你呃，我请来你来正当迅树成活的时候，</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>个体未知</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“好，你呃，我请来你来正当迅树成活的时候”体现出老师发起了一个开展课堂活动的指令，其中，“你”指的是特定的一个学生，而“正当迅树成活的时候”可能是老师要求该学生朗读的句子。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1311,7 +1431,11 @@
           <t>读这样子，我请女孩子来来大家的读班读书本，正当杏树成活的时候，</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>学生齐读</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“我请女孩子来来大家的读班读书本”体现出老师发起了一个开展课堂活动的指令，其中，“女孩子”指定了参与活动的群体，“来来大家的读班读书本”可能是指老师邀请女孩子们朗读课本中的内容，虽然表达不够清晰，但可以推测是让女孩子们参与朗读活动。“正当杏树成活的时候”是老师可能要学生朗读的文句。综合上述整段话的分析过程，这个课堂活动可能是老师邀请全体女孩子参与、且整齐划一地开展的朗读活动，符合“学生齐读”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“学生齐读”。因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1319,7 +1443,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1338,7 +1462,11 @@
           <t>好，接下来还有哪只鸟来劝猴子了。嗯，这个森林里太热闹了，是不是来薛子浩，你来说说，</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“好，接下来还有哪只鸟来劝猴子了”体现出老师发起了一个开展课堂活动的指令，邀请学生思考接下来的故事发展。进一步地，“嗯，这个森林里太热闹了，是不是”是对当前情境的描述，用来引导学生思考。“薛子浩，你来说说”这部分中，“薛子浩”是被点名的学生名字，他被要求用话语来表达自己的想法。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1346,7 +1474,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1365,7 +1493,11 @@
           <t>好，还起第三行长数乘我的时候，</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“好，还起第三行长数乘我的时候”这句话，老师似乎是在引导学生进行数学运算的过程，但并没有明确指出学生需要做什么类型的活动，如发言、展示、练习等。这句话更像是老师在教学过程中的指导语，没有直接对应的课堂活动特征。
@@ -1392,7 +1524,11 @@
           <t>好，这课要请男孩子来做杜鹃，好不好？把这个话来读一读啊，正当桃树成活的时候，预备起正当桃树成活的时候，</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>学生齐读</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“好，这课要请男孩子来做杜鹃“体现出老师发起了一个开展课堂活动的指令，其中，“男孩子”并没有“一个”等量词来修饰，因此这里的“男孩子”指男孩子这个群体，而非个别学生。“来做杜鹃”体现了老师要求男孩子这个群体扮演杜鹃这个角色。进一步地，“把这个话来读一读”中的“读一读”体现出老师让男孩子通过扮演杜鹃来朗诵杜鹃的话。然后，“预备起”这个词体现出这个朗读活动是整齐划一地开展。综合上述整段话语的分析过程，这个课堂活动是由全体男同学集体参与、且整齐划一地开展的朗读活动，符合“学生齐读”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“学生齐读”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1400,7 +1536,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1419,7 +1555,11 @@
           <t>乌鸦喜鹊杜鹃都来劝猴子了，他们劝猴子说的话的时候又有什么相似之处吗，找找规律看，你找到什么，是每每个中午说话的时候都会有过山车，</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“他们劝猴子说的话的时候又有什么相似之处吗，找找规律看，你找到什么”体现出老师发起了一个开展课堂活动的指令。首先，“他们劝猴子说的话的时候又有什么相似之处吗”体现出老师要求学生观察和分析乌鸦、喜鹊和杜鹃劝说猴子的语言特点，寻找共同点，这是一项需要学生个体独立思考的任务。进一步地，“找找规律看，你找到什么”进一步强化了老师对学生独立思考的要求。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1431,7 +1571,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1450,7 +1590,11 @@
           <t>乌鸦喜鹊杜鹃杜鹃对很好，</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“乌鸦喜鹊杜鹃杜鹃对很好”中，老师的话语像是在评价或确认某个情境或答案，没有明显的课堂活动指示。没有出现如“请”，“我们来做”，“你说”，“一起”，“写下来”，“读一读”等能指示具体课堂活动的词汇或短语。因此，无法判断老师说完这段话后学生要开展的具体课堂活动。
@@ -1477,7 +1621,11 @@
           <t>还有三楼上去来。他们每次，</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，”还有三楼上去来“这句话是描述一个场景或者行动，没有明确的课堂活动指令。因此，无法识别出任何预设的课堂活动类别。
@@ -1504,7 +1652,11 @@
           <t>喜鹊说你怎么种，杏树呢？杜鹃说，好一哥，你怎么种好树？对，意思都在说你不可以种的杏树，你不可以种，好，然后再来一句noyes来。还有你说就是他，</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“喜鹊说你怎么种，杏树呢？杜鹃说，好一哥，你怎么种好树？”是老师在引用或模拟对话，然后，“对，意思都在说你不可以种的杏树，你不可以种”是对前面对话内容的解释和总结，接着，“好，然后再来一句noyes来”可能是老师要求学生模仿对话中的一种回答模式，但没有明确指出是哪个学生，也没有提到其他具体的学生行为，如讨论、回答或书写等。最后，“还有你说就是他”这句话没有明确的指示，可能是老师在询问或期待某个特定学生对前面对话内容的回应，但无法确定具体课堂活动的类型。综合上述整段话的分析过程，这段话语中虽然包含了课堂互动的元素，但没有清晰的指向某个预设的课堂活动类别。
@@ -1531,7 +1683,11 @@
           <t>对不对？来，还有他说你不着急，就是在说你有这个耐心吗？</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“对不对？”体现出老师可能在询问学生对之前讲解内容的理解，而“来，还有他说你不着急，就是在说你有这个耐心吗？”则是老师在引导学生思考并回答问题。虽然话语中包含了一些引导性的话语，但没有明确的指令来启动如“个体发言”、“小组学习”或“独立练习”等特定的课堂活动。因此，无法直接预测出一个具体的课堂活动类别。
@@ -1558,7 +1714,11 @@
           <t>最后一句你有，只猫猫，然后再找第四喜喜鹊对猴子说的。最后一句话是，你没找到，</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，”最后一句你有，只猫猫，然后再找第四喜喜鹊对猴子说的。最后一句话是，你没找到“，这句话是在指示学生查找和理解文本中的特定句子，尤其是“最后一句”和“第四喜喜鹊对猴子说的”这部分。虽然老师在指导学生完成一项任务，但没有明确指出这是一个集体活动还是个体活动，也没有提到学生需要以何种形式（如发言、写作或展示）来回应。因此，无法确定是“独立练习”、“小组学习”、“个体发言”还是其他类型的课堂活动。综合上述整段话的分析过程，这段话语没有提供足够的信息来识别一个明确的课堂活动类别。
@@ -1585,7 +1745,11 @@
           <t>不都在说猴子怎么样？不能等不急？都在说猴子了，会着急，是不是啊？这个猴子越来越着急。是的啊，在这里他有三个不同的想法很好。你说还有什么，嗯三个不一样，</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师的话语主要是对课堂上讨论内容的反馈和引导，提到了“猴子”这一话题，并鼓励学生分享更多的观点。话语中没有明显的指令去启动一个新的课堂活动，比如个体发言、小组学习或独立练习等。因此，无法从这段话中直接推断出学生即将进行的课堂活动。
@@ -1612,7 +1776,11 @@
           <t>这就是我们中国语言的神秘之处啊，我们与中国语言文字的奥秘性。好，你说你有什么补充他他还有每个每个渣渣呀这种的后别都在一个地啊，</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，"你说你有什么补充他他还有每个每个渣渣呀这种的后别都在一个地啊"这部分，老师邀请一个学生来补充或发表观点，但没有明确指出是哪个学生，也没有具体说明是独立练习还是小组活动，也没有提到是听写、齐读或齐写等。因此，这个课堂活动可能是“个体发言”，但具体的学生身份和活动形式不够明确。
@@ -1620,7 +1788,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1639,7 +1807,11 @@
           <t>好，你来说就是他们出现的时候都都是他就是他们成活的时候，</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你来说就是他们出现的时候都都是他就是他们成活的时候”体现出老师发起了一个开展课堂活动的指令，其中，“你来说”体现出老师邀请一个学生来发言，用话语来表达关于“他们出现的时候都都是他就是他们成活的时候”的理解或者观点。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1647,7 +1819,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1666,7 +1838,11 @@
           <t>是不是觉得很好讲？是的好的，自己选一个角色，你可以选吴雅，可以选喜鹊，也可以选杜鹃，把他的这段话自己在下面练讲，等一会儿像高婷一样站起来啊，很熟练的啊，很有感情的告诉给大家，</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“自己选一个角色，你可以选吴雅，可以选喜鹊，也可以选杜鹃”体现出老师发起了一个开展课堂活动的指令，要求学生选择一个角色。进一步地，“把他的这段话自己在下面练讲”体现出学生需要自己练习讲述一段话，而“等一会儿像高婷一样站起来啊，很熟练的啊，很有感情的告诉给大家”这部分内容，表明学生需要在练习后站起来，向全班同学有感情地复述这段话，这符合“个体展示”的特征。综合上述整段话的分析过程，这个课堂活动是由学生个体执行、通过练习和展示来分享对角色的理解，符合“个体展示”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体展示”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1697,7 +1873,11 @@
           <t>你的同桌好朋友听啊。哎如果你是讲这样的话的，你讲给同桌听同桌。如果讲喜趣的话呢，那要反过来讲，</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>小组学习</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，"你讲给同桌听"体现出老师发起了一个开展课堂活动的指令，要求学生向同桌分享自己的观点或故事。由于是针对同桌进行的，这可能是一种一对一的交流活动，符合“个体发言”的特征。同时，"如果讲喜趣的话呢，那要反过来讲"这部分是对分享内容的建议，但不影响“个体发言”的活动类型。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1728,7 +1908,11 @@
           <t>等一会下门再出去，啊，是不是长得差不多了，没有小乌鸦来试试看没有啊，那等一会儿吧，我们毕竟有三十八个同学在等你们两个，我们四个人都没有好，</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“等一会儿吧”体现出老师在等待某个活动的开始，但并没有明确指出这个活动是什么，也没有指明活动的参与者是谁。同时，“我们四个人都没有好”表明老师在等待四个人准备好，但没有进一步说明这四个人是要进行什么活动。综合上述整段话的分析过程，这段话中虽然涉及到等待活动的开始，但无法确定具体的课堂活动类别，符合”集体未知“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“集体未知”。因为执行该课堂活动的指令即将发出，因此课堂活动的进行状态为“即将开始”。
@@ -1755,7 +1939,11 @@
           <t>哎，你们很好尊重其他同学啊。好，谁来试试这样子啊，我们先请小乌鸦，好吧，谁是刚刚练了小乌鸦的话，好，他是谁，</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>个体展示</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，”谁来试试这样子啊“体现出老师发起了一个开展课堂活动的指令，邀请一个学生尝试某种行为或任务。进一步地，“我们先请小乌鸦，好吧，谁是刚刚练了小乌鸦的话”表明老师在寻找之前练习过小乌鸦角色的同学，准备让他们进行展示。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种展示行为，符合“个体展示”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体展示”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1763,7 +1951,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -1782,7 +1970,11 @@
           <t>是不是可以表演一些动作表情行都可以出来啊。好，你来试试。正当一树成的时候哦，我们在讲乌鸦，等一儿请你好不好？乌鸦二十五页，好，正高一处成。你这样吧，你上来吧，好不好？我上来讲好不好？来掌声鼓励一起，</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>个体展示</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，”是不是可以表演一些动作表情行都可以出来啊“体现出老师在邀请学生使用动作和表情来表现，这通常涉及到表演类的课堂活动。进一步地，“好，你来试试”表明老师邀请一个学生来尝试表演。接着，“正当一树成的时候哦，我们在讲乌鸦，等一儿请你好不好？”老师在描述场景并邀请某个学生（可能是“你”）来参与表演。再者，“乌鸦二十五页”可能是指表演的内容来源。然后，“你这样吧，你上来吧，好不好？”再次确认并邀请一个学生上台表演。最后，“我上来讲好不好？来掌声鼓励一起”表明老师可能也会参与进来，同时鼓励全班同学给予掌声支持。
@@ -1791,7 +1983,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -1810,7 +2002,11 @@
           <t>刚刚一开始说啊，已已经很好了了，能够把故事讲用一个。第二个能加上动作。来来第三个能不能表演的更好。哎，加上表情啊，你来试试，你是读乌鸦的话是吗？来上来小乌鸦，有请小乌鸦，</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>个体展示</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“来来第三个能不能表演的更好。哎，加上表情啊，你来试试，你是读乌鸦的话是吗？”体现出老师发起了一个开展课堂活动的指令，邀请一个学生进行表演。这里“你来试试”、“你是读乌鸦的话是吗？”表明老师在邀请一个学生（可能是“小乌鸦”）来尝试表演，并且要求他读出乌鸦的话，同时加上动作和表情，这符合“个体展示”的特征。而“有请小乌鸦”进一步确认了老师邀请了特定的学生“小乌鸦”来执行这个表演任务。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种表演展示活动，符合“个体展示”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体展示”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1818,7 +2014,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1837,7 +2033,11 @@
           <t>三只小乌鸭都非常棒，你们三个小朋友都可以参加。好，接下来请大演喜频的小朋友。谁来讲讲喜的话，好，恭请，</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>个体展示</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“三只小乌鸭都非常棒，你们三个小朋友都可以参加”体现出老师对学生的肯定，并邀请三位小朋友参与活动。进一步地，“好，接下来请大演喜频的小朋友”中，”大演喜频“可能是活动的名称或者角色名称，而“谁来讲讲喜的话”则体现出老师邀请一个或多个学生来讲述关于“喜”的内容。综合上述整段话的分析过程，这个课堂活动是由一个或多个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1868,7 +2068,11 @@
           <t>啊。下面的小听众我也要啊啊人家上面表演的。那么啊认真。那你下面面要尊重这些小演员啊，这张就是，</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“下面的小听众”指的是全班学生，老师要求他们认真倾听和尊重“上面表演的”同学，即正在展示的同学。这表明老师期望全班同学以观众的身份参与课堂活动，对表演者表示尊重并给予关注。同时，由于“上面表演的”暗示了正在进行的活动是某个或某些同学在进行展示。综合上述整段话的分析过程，这个课堂活动是由一个或多个学生执行的展示，而其他学生作为听众，符合“多人展示”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“多人展示”，因为执行该课堂活动的指令已经发出，因此课堂活动的进行状态为“进行中”。
@@ -1895,7 +2099,11 @@
           <t>我来找一下你讲话的时，这样不好。哎，哪怕他做的不好，你也不可以在下面窃窃私语，这是对别人的尊重，你最起码得耐心的听别人讲完他读错一个字或者漏错一个字，现在都没关系。那我请你来，你还不如，</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，”我来找一下你讲话的时“体现出老师在指导学生如何正确地发言，同时，“哎，哪怕他做的不好，你也不可以在下面窃窃私语，这是对别人的尊重，你最起码得耐心的听别人讲完他读错一个字或者漏错一个字”这部分是老师在强调课堂纪律，要求学生尊重他人并认真倾听。最后，“那我请你来，你还不如”这句话虽然表明老师可能要邀请一个学生来执行某种活动，但是这句话没有完整表达出具体的课堂活动是什么。综合上述整段话的分析过程，虽然有迹象表明可能要进行课堂活动，但无法准确判断出具体的活动类别。
@@ -1922,7 +2130,11 @@
           <t>来，我要表表扬，能够举手，勇敢上台表扬的小目啊。好，开始，正当杜鹃，</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>个体展示</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“我要表扬”体现出老师发起了一个课堂活动的指令，但表扬的对象是“能够举手，勇敢上台”的学生，而“小目”可能是老师接下来要表扬的学生的名字。进一步地，“好，开始，正当杜鹃”这部分没有提供足够的信息来识别出具体的课堂活动。综合上述整段话的分析过程，虽然可以确定老师正在表扬一个学生，但无法确定接下来的课堂活动类别。所以，在老师说完这段话后，无法识别出任何预设的课堂活动类别。
@@ -1949,7 +2161,11 @@
           <t>方老师给你个提示啊，那正当杏我再讲喜鹊，我们现在叫区，正当豪生当成的，</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“方老师给你个提示啊”表明老师在提供一些帮助或指引，“那正当杏我再讲喜鹊，我们现在叫区，正当豪生当成的”这部分似乎是在解释或提示某个知识点，但并没有明显的课堂活动指令，如个体发言、小组学习等。综合上述整段话的分析过程，这段话语没有明确的课堂活动指示，因此无法识别出任何预设的课堂活动类别。
@@ -1976,7 +2192,11 @@
           <t>啊？我再请刚刚下面再坐下动作讲话，你来，</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>个体展示</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“我再请刚刚下面再坐下动作讲话”体现出老师发起了一个开展课堂活动的指令，邀请某个学生进行动作和讲话的展示，可能是指学生在站立的状态下进行某种动作，然后坐下并发表相关讲话。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且涉及到动作和口述的活动，符合“个体展示”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体展示”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1988,7 +2208,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2007,7 +2227,11 @@
           <t>啊现在现练离手了，你不想看来你来，隔壁脸，</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“啊现在现练离手了”这句话不太清晰，难以理解其完整含义，可能是在指导学生进行某种动作或者练习，但具体活动类别无法准确识别。“你不想看来你来，隔壁脸”这句话中，“你来”似乎在邀请一个学生进行某个活动，但“不想看”和“隔壁脸”这部分没有明确的课堂活动特征。综合分析，这段话中没有足够信息来判断即将进行的课堂活动类别。
@@ -2034,7 +2258,11 @@
           <t>请坐，要批评那段话，三十秒的话都到我这来，一定要积极思考，</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“要批评那段话”体现出老师发起了一个开展课堂活动的指令，要求学生对某段话进行批判性思考。进一步地，“三十秒的话都到我这来”表明学生需要在三十秒内准备并表达自己的观点，这可能涉及到个体发言或者多人展示。然而，由于“到我这来”可以理解为老师要求学生走到前面或者直接向老师陈述，这更倾向于一个个体性的活动，比如“个体发言”。同时，“一定要积极思考”强调了在活动过程中需要学生积极参与和思考。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -2065,7 +2293,11 @@
           <t>不是自己坐在那里，还有不是在那里随便想讲话就讲去你坐端正，</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“不是自己坐在那里”和“不是在那里随便想讲话就讲”是对学生行为的纠正，要求学生保持良好的课堂纪律，而“去你坐端正”是老师对学生坐姿的规范要求。这些话语没有明确地指向任何特定的课堂活动，而是对课堂纪律和行为规范的提醒。所以，在老师说完这段话后，无法识别出任何预设的课堂活动类别。
@@ -2092,7 +2324,11 @@
           <t>快点破产做动作。对啊，</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“快点破产做动作”这部分可能是老师在模拟某种情景或者游戏，要求学生快速做出相应的动作。然而，这个指令不够清晰，没有明确指出是哪种类型的课堂活动，例如是“个体发言”、“小组学习”还是其他。同时，这个指令可能更多地涉及到身体动作而非口头表达或书写练习。因此，无法确定具体的课堂活动类别。
@@ -2119,7 +2355,11 @@
           <t>每个同学都认真举手，好，往下面来你是读喜鹊的话啊，喜鹊小喜鹊停来上来来表演啊，忘记了，可以稍微看一下啊，正当杏树成活的时候，</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>个体展示</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，”每个同学都认真举手“体现出学生们的积极参与，但并不是老师发出的课堂活动指令。接着，”好，往下面来你是读喜鹊的话啊“，这里老师开始指定一个学生，让他读喜鹊的角色，这符合“个体展示”的特征，因为老师要求一个学生在全班面前展示朗读。再者，”喜鹊小喜鹊停来上来来表演啊“，这部分可能是老师对学生的鼓励或者提示，要求学生模仿喜鹊的角色进行表演，这也进一步支持了“个体展示”的判断。最后，”忘记了，可以稍微看一下啊，正当杏树成活的时候“，这部分是老师对学生的指导，允许学生参考文本进行朗读。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、向全班同学展示朗读和表演的活动，符合“个体展示”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体展示”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -2131,7 +2371,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2150,7 +2390,11 @@
           <t>而且他刚刚坐在下面是认真听的啊，最起码比上面不敢去说小票有勇敢这一点我就要勇敢来。你是喜鹊来，喜鹊没有。刚刚乌鸦讲的好，对我要请只非常棒的小喜鹊，正当杏树成活的时候，</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你是喜鹊来，喜鹊没有”这部分体现出老师在指派角色，邀请学生扮演喜鹊的角色。进一步地，“刚刚乌鸦讲的好，对我要请只非常棒的小喜鹊”这部分表明老师对之前一位扮演乌鸦的同学的表扬，并邀请另一位学生扮演喜鹊，进行角色扮演活动。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、向全班同学展示其角色扮演能力的活动，符合”个体展示“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体展示”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -2181,7 +2425,11 @@
           <t>但是呢小故事就是背书可以加上动作。像刚刚几只小姑娘扮演的非常好啊。好，接下来请来演演小杜鹃，好的，你来，你实在忘记了，可以看一下提示啊。正当桃树成活的时候，</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“小故事就是背书可以加上动作”体现出老师在描述一个课堂活动的方式，即背诵时可以加入动作。然后，“像刚刚几只小姑娘扮演的非常好啊”是对之前学生表演的赞扬。再者，“好，接下来请来演演小杜鹃，好的，你来”体现出老师发起了一个开展课堂活动的指令，邀请一个学生来扮演小杜鹃，这涉及到一个表演活动，符合“个体展示”的特征。最后，“你实在忘记了，可以看一下提示啊”是对学生参与活动的提示，而“正当桃树成活的时候”是老师给出的台词提示。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、通过表演来展示对文本理解的活动，符合“个体展示”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体展示”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -2208,7 +2456,11 @@
           <t>不着急，你不着急。对啊，请坐好掌声鼓励一下，小杜鹃有点严肃啊。不会你们啊，好歌好歌啊，着急一点好不好？来谁再来演一演，你来罗若涵，</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>个体展示</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，"来谁再来演一演"体现出老师发起了一个开展课堂活动的指令，邀请一个学生来表演。结合前面的“小杜鹃有点严肃啊”，可以推断这个表演可能与之前的角色扮演有关，即学生需要重新演绎或改进之前的角色。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、向全班同学展示的活动，符合“个体展示”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体展示”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -2220,7 +2472,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2239,7 +2491,11 @@
           <t>很好好，这福利，听了三只鸟儿的话，猴子可有想法了。投资是怎么想的，听了乌鸦的话，猴子一想，对五年海棠黄荷等于几听了喜鹊的话，</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“听了三只鸟儿的话，猴子可有想法了。投资是怎么想的，听了乌鸦的话，猴子一想，对五年海棠黄荷等于几听了喜鹊的话”这部分描述了猴子根据鸟儿们的话进行思考的过程，但并没有直接发出学生应该做什么的明确指令，也没有提到具体的课堂活动如发言、展示或练习等。这段话更像是老师在讲述故事或者讲解内容，而不是发起一个课堂活动。
@@ -2266,7 +2522,11 @@
           <t>现在呀我们拿起书本，把这个故事啊从头到尾再来背一背，用上。刚刚老师教你们的，咱们去把故事啊讲流利讲通顺，然后讲的有感情啊，猴子种了一棵梨树苗，预备起猴子，</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>学生齐读</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“现在呀我们拿起书本”体现出老师发起了一个开展课堂活动的指令，其中，“现在”一词表明活动即将开始。接着，“把这个故事啊从头到尾再来背一背”体现出老师要求学生重新背诵整个故事，这涉及到学生独立记忆和复述的活动，符合“独立练习”的特征。进一步地，“用上刚刚老师教你们的”暗示学生在背诵过程中要运用之前学到的技巧，这仍然是一个个人化的学习活动。然后，“咱们去把故事啊讲流利讲通顺，然后讲的有感情”进一步强调了老师希望学生不仅能够背诵，还要有感情地讲述，这可能涉及到个体的口头表达，符合“个体发言”的特征。最后，“猴子种了一棵梨树苗，预备起猴子”这部分可能是老师在示范或引导学生如何开始讲述故事，这可以看作是“个体发言”活动的开始。
@@ -2298,7 +2558,11 @@
           <t>猴子呀他一开始很勤劳啊，还是种了一棵梨树。可是当乌鸦来劝说它的时候，它就拔掉了。改种了杏树。喜鹊来劝他了，杏树，改种了桃树。</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师在讲述一个故事，描述猴子不断改变种植的树木类型。这段话并没有包含任何明显的课堂活动指令，如邀请学生发言、展示、练习或书写等。因此，从这段话中无法识别出任何预设的课堂活动类别。
@@ -2325,7 +2589,11 @@
           <t>没有自己的想，是不是啊，到最后什么都没有啊。那么这只小猴呢，也挺可怜的。你想对他说什么，想对他说说汤子晨，你说，如果你，</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你想对他说什么，想对他说说汤子晨，你说，如果你”体现出老师发起了一个开展课堂活动的指令。首先，”你想对他说什么“体现出老师要求学生进行思考，接着，“汤子晨，你说”明确指出汤子晨同学需要表达自己的想法，这里的“你说”体现了老师邀请一个学生用话语来表达自己的观点。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -2333,7 +2601,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2352,7 +2620,11 @@
           <t>你有什么想对孩子说什么？我想对你说你太犯脱，</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师的话语是对学生的个人评价和建议，没有明显的课堂活动指示，如小组讨论、独立练习、齐读等。因此，无法识别出任何预设的课堂活动类别。
@@ -2379,7 +2651,11 @@
           <t>对，好的，来你来说，小猴子，我想对你说，你，</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“来你来说”体现出老师发起了一个开展课堂活动的指令，邀请一个学生用话语来表达自己的想法。结合前文的“小猴子”，这可能是一个角色扮演的情境，老师可能是在引导学生扮演“小猴子”这个角色并进行发言。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合”个体发言“的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -2406,7 +2682,11 @@
           <t>而且再说你咦那个处于被痛的状态，</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，老师的话语似乎是在对某个情境或者问题进行描述，但是没有明确的指令指向任何预设的课堂活动，如发言、练习或展示等。因此，无法识别出具体的课堂活动类别。
@@ -2433,7 +2713,11 @@
           <t>他跪在地上旁边呢有个人拿着拐杖在打他的小屁股，对不对？就是叫他知错就改对的啊，所以这个改字我们一起来写一写来小手笔伸出来一横折，预备起一横折，二横三十五，</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>学生齐写</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，”这个改字我们一起来写一写“体现出老师发起了一个开展课堂活动的指令。首先，“我们一起来写一写”中的”我们“体现出这个课堂活动是由学生集体参与；”写一写“体现出该活动是一个书写活动；“一起”有两种可能的理解：第一种是所有学生整齐划一地进行同一个活动；第二种是每位学生各自独立参与，但都在做同样的行为，"预备起"这个词体现出这个书写活动要求学生整齐划一地开展，因而，这里的”一起“是第一种理解。 综合上述整段话的分析过程，这个课堂活动是老师邀请学生集体参与、且整齐划一地开展的书写活动，符合“学生齐写”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“学生齐写”。因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -2441,7 +2725,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2460,7 +2744,11 @@
           <t>李春月改正改正好的，来，你来知错能改，知错能改，你说，改革改革啊，来，你说改变改变。好啊。好，我们学下一个字，洗xpyy预备起xpy，洗上结构，</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>学生齐写</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“李春月改正改正好的”是老师对学生进行的纠正，而“来，你来知错能改，知错能改”是对学生进行的鼓励，同时让学生重复改正后的内容，但这里并未明确要求学生执行任何特定的课堂活动。接着，“你说，改革改革啊，来，你说改变改变”是老师让学生再次重复一些词语，这可能是在练习发音或者强化记忆。最后，“好啊。好，我们学下一个字，洗xpyy预备起xpy，洗上结构”老师开始教授新的字，让学生们一起学习，其中“预备起”暗示着学生要跟随着老师一起书写或朗读这个字。综合分析，这段话中涉及的课堂活动有学生跟读（个体发言）和学生齐写（学生齐写），并且都是在开始阶段。
@@ -2472,7 +2760,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
